--- a/通信协议/browser_client通信协议.xlsx
+++ b/通信协议/browser_client通信协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
   <si>
     <t>命令头</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,10 +32,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发送用户信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sendClientMac</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,10 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>keyID:xxx;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>发送用户中控列表信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -160,11 +152,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>central:xxx;name:xxx;displayImg:xxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>endcentralMsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>centralID:xxx;name:xxx;mac:xxx;displayImg:xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyID:xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id:xxx;name:xxx;signalTypeID:xxx;displayImg:xxx;centralID:xxx;controllerSourceID:xxx;controllerModelID:xxx;machineID:xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id:xxx;controllerID:xxx;controllerSrcID:xxx;name:xxx;keyTypeID:xxx;displayText:xxx;remarks:xxx;protocol:xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id:xxx;keyID:xxx;keyTypeID:xxx;functionType:xxx;infrareValue:xxx;freq:xxx;quality:xxx;priority:xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id:xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id:xxx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -214,13 +230,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -540,11 +565,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
@@ -559,21 +584,21 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
@@ -588,21 +613,21 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -617,21 +642,21 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
         <v>35</v>
       </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
@@ -646,21 +671,21 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
@@ -673,20 +698,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+    <row r="19" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
@@ -699,20 +727,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
+    <row r="23" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
@@ -725,20 +756,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
+    <row r="27" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C27" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="A29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
@@ -753,18 +787,21 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
@@ -779,18 +816,21 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="A37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
@@ -805,73 +845,32 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
         <v>31</v>
       </c>
-      <c r="C39" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
-        <v>2</v>
-      </c>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
-        <v>2</v>
-      </c>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A47" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
-        <v>2</v>
-      </c>
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A44:C44"/>
     <mergeCell ref="A47:C47"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A5:C5"/>
@@ -880,6 +879,11 @@
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A44:C44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/通信协议/browser_client通信协议.xlsx
+++ b/通信协议/browser_client通信协议.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
   <si>
     <t>命令头</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,6 +181,14 @@
   </si>
   <si>
     <t>id:xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果服务端正常接收信息，返回 ‘1’，结束符为 evoMsg;出现未知错误返回任意值，结束符 evoMsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据长度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -232,12 +240,6 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -246,6 +248,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -551,27 +559,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.625" customWidth="1"/>
     <col min="2" max="2" width="53.375" customWidth="1"/>
-    <col min="3" max="3" width="21.625" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -579,28 +592,32 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -608,28 +625,32 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -637,28 +658,32 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>35</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -666,28 +691,32 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -695,28 +724,33 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="1"/>
+      <c r="D19" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -724,28 +758,33 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="1"/>
+      <c r="D23" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -753,28 +792,33 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3"/>
+      <c r="D27" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -782,28 +826,32 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>40</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -811,28 +859,32 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>30</v>
       </c>
       <c r="B35" t="s">
         <v>41</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -840,50 +892,56 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>29</v>
       </c>
       <c r="B39" t="s">
         <v>41</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A44:D44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/通信协议/browser_client通信协议.xlsx
+++ b/通信协议/browser_client通信协议.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="45">
   <si>
     <t>命令头</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,14 +100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>easylinkMac:xxx;phoneMac:xxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userSource:xxx;userName:xxx;userAccount:xxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>发送用户中控列表信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -156,39 +148,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>centralID:xxx;name:xxx;mac:xxx;displayImg:xxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>keyID:xxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id:xxx;name:xxx;signalTypeID:xxx;displayImg:xxx;centralID:xxx;controllerSourceID:xxx;controllerModelID:xxx;machineID:xxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id:xxx;controllerID:xxx;controllerSrcID:xxx;name:xxx;keyTypeID:xxx;displayText:xxx;remarks:xxx;protocol:xxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id:xxx;keyID:xxx;keyTypeID:xxx;functionType:xxx;infrareValue:xxx;freq:xxx;quality:xxx;priority:xxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id:xxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id:xxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>如果服务端正常接收信息，返回 ‘1’，结束符为 evoMsg;出现未知错误返回任意值，结束符 evoMsg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>数据长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>length:xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"easylinkMac":"xxx","phoneMac":"xxx"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"userSource":"xxx,userName":"xxx","userAccount":"xxx"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"centralID":xxx,"name":"xxx","mac":"xxx","displayImg":"xxx"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"keyID":"xxx"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"id":"xxx","name":"xxx","signalTypeID":"xxx","displayImg":"xxx","centralID":"xxx","controllerSourceID":"xxx","controllerModelID":"xxx","machineID":"xxx"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"id":"xxx","controllerID":"xxx","controllerSrcID":"xxx","name":"xxx","keyTypeID":xxx,"displayText":"xxx","remarks":"xxx","protocol":xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"id":"xxx","keyID":xxx,"keyTypeID":xxx,"functionType":xxx,"infrareValue":xxx,"freq":xxx,"quality":xxx,"priority":xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"id":"xxx"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"id":"xxx"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,13 +566,13 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.625" customWidth="1"/>
-    <col min="2" max="2" width="53.375" customWidth="1"/>
+    <col min="2" max="2" width="59.125" customWidth="1"/>
     <col min="3" max="3" width="13.375" customWidth="1"/>
     <col min="4" max="4" width="21.625" customWidth="1"/>
   </cols>
@@ -581,7 +585,7 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -592,7 +596,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -603,7 +607,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -625,7 +632,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
@@ -636,7 +643,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -644,7 +654,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -658,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
         <v>2</v>
@@ -666,13 +676,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
         <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -691,7 +704,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
         <v>2</v>
@@ -702,7 +715,10 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
@@ -724,7 +740,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
         <v>2</v>
@@ -735,9 +751,11 @@
         <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="D19" s="2" t="s">
         <v>14</v>
       </c>
@@ -758,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
         <v>2</v>
@@ -769,9 +787,11 @@
         <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="D23" s="2" t="s">
         <v>17</v>
       </c>
@@ -792,7 +812,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
         <v>2</v>
@@ -803,16 +823,21 @@
         <v>19</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="D27" s="2" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C28" s="2"/>
+    </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -826,7 +851,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D30" t="s">
         <v>2</v>
@@ -834,18 +859,21 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -859,7 +887,7 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D34" t="s">
         <v>2</v>
@@ -867,18 +895,21 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -892,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D38" t="s">
         <v>2</v>
@@ -900,13 +931,16 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" t="s">
         <v>29</v>
-      </c>
-      <c r="B39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">

--- a/通信协议/browser_client通信协议.xlsx
+++ b/通信协议/browser_client通信协议.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="53">
   <si>
     <t>命令头</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,167 +32,199 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>endMac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendUserMsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endUserMsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送Mac地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendKeyID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endKeyID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送遥控器信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送按键信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送红外信号信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendInfrared</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endInfrared</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送用户中控列表信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendCentralList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endCentralList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送用户遥控设备列表信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送用户按键列表信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endContralList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endKeyList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendControllerList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endKeyList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送中控信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendcentralMsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endcentralMsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果服务端正常接收信息，返回 ‘1’，结束符为 evoMsg;出现未知错误返回任意值，结束符 evoMsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>length:xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"easylinkMac":"xxx","phoneMac":"xxx"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"userSource":"xxx,userName":"xxx","userAccount":"xxx"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"centralID":xxx,"name":"xxx","mac":"xxx","displayImg":"xxx"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"id":"xxx","name":"xxx","signalTypeID":"xxx","displayImg":"xxx","centralID":"xxx","controllerSourceID":"xxx","controllerModelID":"xxx","machineID":"xxx"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"id":"xxx","controllerID":"xxx","controllerSrcID":"xxx","name":"xxx","keyTypeID":xxx,"displayText":"xxx","remarks":"xxx","protocol":xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"id":"xxx","keyID":xxx,"keyTypeID":xxx,"functionType":xxx,"infrareValue":xxx,"freq":xxx,"quality":xxx,"priority":xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"id":"xxx"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"id":"xxx"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>sendClientMac</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>endMac</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sendUserMsg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endUserMsg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送Mac地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送按键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sendKeyID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endKeyID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送遥控器信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sendController</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endController</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送按键信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sendKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送红外信号信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sendInfrared</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endInfrared</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送用户中控列表信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sendCentralList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endCentralList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送用户遥控设备列表信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送用户按键列表信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endContralList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endKeyList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sendControllerList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endKeyList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送中控信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sendcentralMsg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endcentralMsg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果服务端正常接收信息，返回 ‘1’，结束符为 evoMsg;出现未知错误返回任意值，结束符 evoMsg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>length:xxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"easylinkMac":"xxx","phoneMac":"xxx"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"userSource":"xxx,userName":"xxx","userAccount":"xxx"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"centralID":xxx,"name":"xxx","mac":"xxx","displayImg":"xxx"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"keyID":"xxx"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"id":"xxx","name":"xxx","signalTypeID":"xxx","displayImg":"xxx","centralID":"xxx","controllerSourceID":"xxx","controllerModelID":"xxx","machineID":"xxx"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"id":"xxx","controllerID":"xxx","controllerSrcID":"xxx","name":"xxx","keyTypeID":xxx,"displayText":"xxx","remarks":"xxx","protocol":xxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"id":"xxx","keyID":xxx,"keyTypeID":xxx,"functionType":xxx,"infrareValue":xxx,"freq":xxx,"quality":xxx,"priority":xxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"id":"xxx"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"id":"xxx"</t>
+    <t>byClient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>byClient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送指令信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"centralID":"xxx","infrareValue":"xxx"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -242,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -253,10 +285,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -563,419 +597,487 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.625" customWidth="1"/>
-    <col min="2" max="2" width="59.125" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="21.625" customWidth="1"/>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="23.625" customWidth="1"/>
+    <col min="4" max="4" width="59.125" customWidth="1"/>
+    <col min="5" max="5" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="F1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>0</v>
       </c>
       <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>0</v>
       </c>
       <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>0</v>
       </c>
       <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" t="s">
         <v>1</v>
       </c>
-      <c r="C22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>0</v>
       </c>
       <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" t="s">
         <v>1</v>
       </c>
-      <c r="C26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>0</v>
       </c>
       <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" t="s">
         <v>1</v>
       </c>
-      <c r="C30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>0</v>
       </c>
       <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" t="s">
         <v>1</v>
       </c>
-      <c r="C34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D35" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+      <c r="E35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>0</v>
       </c>
       <c r="B38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" t="s">
         <v>1</v>
       </c>
-      <c r="C38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" t="s">
         <v>27</v>
       </c>
-      <c r="B39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A44:D44"/>
+  <mergeCells count="12">
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A21:E21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
